--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BusinessUnits" sheetId="1" r:id="rId1"/>
+    <sheet name="Meetings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,18 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>nameBusinessUnit</t>
-  </si>
-  <si>
-    <t>businessUnitOne</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>option</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>verification</t>
+  </si>
+  <si>
+    <t>nameBusinessunit</t>
+  </si>
+  <si>
+    <t>Businessunit</t>
+  </si>
+  <si>
+    <t>meetingName</t>
+  </si>
+  <si>
+    <t>verificationName</t>
+  </si>
+  <si>
+    <t>meeting created</t>
   </si>
 </sst>
 </file>
@@ -350,8 +357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,18 +369,53 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -34,10 +34,10 @@
     <t>meetingName</t>
   </si>
   <si>
-    <t>verificationName</t>
-  </si>
-  <si>
     <t>meeting created</t>
+  </si>
+  <si>
+    <t>verificationCreateMeeting</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,15 +407,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
